--- a/data/month_lengths/readme_examples/month_length_info_readme_examples.xlsx
+++ b/data/month_lengths/readme_examples/month_length_info_readme_examples.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\WorkCurrent\Calendar\data\month_lengths_PACMEDY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Calendar\PaleoCalAdjust\data\month_lengths\readme_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -155,12 +155,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +445,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,22 +492,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <v>1000</v>
+        <v>1850</v>
       </c>
       <c r="G2" s="3">
         <v>100</v>
@@ -520,22 +521,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>-6000</v>
+        <v>-100</v>
       </c>
       <c r="D3" s="3">
-        <v>-6000</v>
+        <v>-100</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>1850</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="3">
         <v>100</v>
@@ -549,16 +550,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -578,16 +579,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="3">
-        <v>-6000</v>
+        <v>-100</v>
       </c>
       <c r="D5" s="3">
-        <v>-6000</v>
+        <v>-100</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -607,16 +608,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -636,16 +637,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3">
-        <v>-6000</v>
+        <v>-100</v>
       </c>
       <c r="D7" s="3">
-        <v>-6000</v>
+        <v>-100</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -685,7 +686,7 @@
       <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -714,7 +715,7 @@
       <c r="G9" s="2">
         <v>7850</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -743,7 +744,7 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -772,7 +773,7 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -801,7 +802,7 @@
       <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -830,7 +831,7 @@
       <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="2" t="s">
